--- a/biology/Médecine/9-Aminoacridine/9-Aminoacridine.xlsx
+++ b/biology/Médecine/9-Aminoacridine/9-Aminoacridine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La 9-aminoacridine est l'acridine dans laquelle l'hydrogène en position 9 est remplacé par un groupe amino. C'est un isomère des aminoacridines. Ce composé se présente sous forme d'aiguilles jaunes, solubles dans l'éthanol[2].
+La 9-aminoacridine est l'acridine dans laquelle l'hydrogène en position 9 est remplacé par un groupe amino. C'est un isomère des aminoacridines. Ce composé se présente sous forme d'aiguilles jaunes, solubles dans l'éthanol.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Colorant hautement fluorescent.
 Antiseptique topique.
 Utilisation dans les collyres pour le traitement des infections oculaires superficielles (généralement sous forme de chlorhydrate).
 Utilisations expérimentales :
-matière matricielle MALDI[3] ;
+matière matricielle MALDI ;
 indicateur de pH intracellulaire ;
 comme mutagène.</t>
         </is>
